--- a/data/georgia_census/adjara/xulo/education_graduates.xlsx
+++ b/data/georgia_census/adjara/xulo/education_graduates.xlsx
@@ -1799,13 +1799,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{345D6390-4CC5-458F-9D45-00E7C19C569C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DA6EC0E-CB76-4D19-ACCF-C7505B5D1792}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD62987C-C421-4D8D-BA97-D8AC059B6D6E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4DAEA62-EEA5-4FED-A693-8C1D8FF6C54B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF3969B2-AB07-4711-9ED4-398F6734FAE3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EADBEF3E-1385-4EC2-A94C-AE93046FD5B9}"/>
 </file>